--- a/config_Release/sysbypms_rank_config.xlsx
+++ b/config_Release/sysbypms_rank_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>id|行号</t>
   </si>
@@ -175,38 +175,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"jing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"50福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -275,14 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_gns_ticket","jing_bi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"200福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -323,10 +283,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>50000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"500福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -395,10 +351,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>100000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"1000福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -678,6 +630,38 @@
   </si>
   <si>
     <t>"200000金币",</t>
+  </si>
+  <si>
+    <t>1,1,5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,20000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,50000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,100000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_50flq","prop_3d_50flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_200flq","prop_3d_200flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_500flq","prop_3d_500flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_1000flq","prop_3d_1000flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1171,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1191,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1211,13 +1195,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1228,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>92</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1251,13 +1235,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1271,13 +1255,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1291,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1308,16 +1292,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1331,13 +1315,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1351,13 +1335,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1371,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1388,16 +1372,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1411,13 +1395,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1431,13 +1415,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1451,13 +1435,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1468,16 +1452,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1491,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1504,9 +1488,9 @@
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.625" customWidth="1"/>
     <col min="9" max="9" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="18.375" customWidth="1"/>
     <col min="14" max="14" width="13.375" customWidth="1"/>
@@ -1610,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="5">
         <v>1000</v>
@@ -1637,7 +1621,7 @@
         <v>32</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1669,25 +1653,25 @@
         <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8">
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L3" s="5">
         <v>10000</v>
@@ -1702,10 +1686,10 @@
         <v>10</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1737,25 +1721,25 @@
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L4" s="10">
         <v>100000</v>
@@ -1770,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1805,25 +1789,25 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L5" s="10">
         <v>1000000</v>
@@ -1838,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1869,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1887,31 +1871,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1922,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1937,10 +1921,10 @@
         <v>-1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1951,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1966,10 +1950,10 @@
         <v>1499</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1980,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1995,10 +1979,10 @@
         <v>1200</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -2009,10 +1993,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2024,10 +2008,10 @@
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2038,10 +2022,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2053,10 +2037,10 @@
         <v>1499</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2067,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2082,10 +2066,10 @@
         <v>1200</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2096,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2111,10 +2095,10 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2125,10 +2109,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2140,10 +2124,10 @@
         <v>1499</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2154,10 +2138,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2169,10 +2153,10 @@
         <v>1200</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2183,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2198,10 +2182,10 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2212,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2227,10 +2211,10 @@
         <v>1499</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2241,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2256,10 +2240,10 @@
         <v>1200</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">

--- a/config_Release/sysbypms_rank_config.xlsx
+++ b/config_Release/sysbypms_rank_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>id|行号</t>
   </si>
@@ -439,14 +439,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bs_icon_hj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq1",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -455,10 +447,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bs_icon_by</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_18y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -467,10 +455,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bs_icon_qt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_15y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -479,14 +463,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"200福利券",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_by</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_jb_30y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -499,19 +475,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"500福利券",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_98y",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs_icon_qt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -611,27 +579,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"30000金币",</t>
-  </si>
-  <si>
-    <t>"10000金币",</t>
-  </si>
-  <si>
-    <t>"100000金币",</t>
-  </si>
-  <si>
-    <t>"50000金币",</t>
-  </si>
-  <si>
-    <t>"300000金币",</t>
-  </si>
-  <si>
-    <t>"500000金币",</t>
-  </si>
-  <si>
-    <t>"200000金币",</t>
-  </si>
-  <si>
     <t>1,1,5000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -661,6 +608,62 @@
   </si>
   <si>
     <t>"obj_3d_1000flq","prop_3d_1000flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1155,13 +1158,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1175,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1195,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1212,16 +1215,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1235,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1255,13 +1258,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1275,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1292,16 +1295,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1315,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1335,13 +1338,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1355,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1372,16 +1375,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1395,13 +1398,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1415,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1435,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1452,16 +1455,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1475,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1594,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>34</v>
@@ -1662,10 +1665,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>39</v>
@@ -1730,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>43</v>
@@ -1798,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>48</v>
@@ -1853,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1909,7 +1912,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1921,10 +1924,10 @@
         <v>-1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1935,25 +1938,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="G3" s="12">
         <v>1499</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1964,10 +1967,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1976,13 +1979,13 @@
         <v>1000</v>
       </c>
       <c r="G4" s="12">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1993,10 +1996,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2008,7 +2011,7 @@
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
@@ -2022,25 +2025,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="G6" s="12">
         <v>1499</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2051,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2063,13 +2066,13 @@
         <v>1000</v>
       </c>
       <c r="G7" s="12">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2080,10 +2083,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2095,10 +2098,10 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2109,25 +2112,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="G9" s="12">
         <v>1499</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2138,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2150,13 +2153,13 @@
         <v>1000</v>
       </c>
       <c r="G10" s="12">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2167,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2182,7 +2185,7 @@
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>44</v>
@@ -2196,25 +2199,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="12">
         <v>1499</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2225,10 +2228,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2237,13 +2240,13 @@
         <v>1000</v>
       </c>
       <c r="G13" s="12">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -2290,5 +2293,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/sysbypms_rank_config.xlsx
+++ b/config_Release/sysbypms_rank_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t>id|行号</t>
   </si>
@@ -167,15 +167,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>50福利券赛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼神秘海域场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -211,147 +203,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼海底宝藏场</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"200福利券",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq2",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼藏宝海湾场</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"500福利券",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福利券赛</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼深海沉船场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000福利券",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -447,10 +315,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_18y",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>青铜段位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -471,15 +335,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_18y",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"ty_icon_flq3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -502,12 +358,164 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2500,</t>
+    <t>5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_50flq","prop_3d_50flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_200flq","prop_3d_200flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_500flq","prop_3d_500flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"obj_3d_1000flq","prop_3d_1000flq","jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ph_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq1",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_15y",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"20000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10000",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250福利券赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500福利券赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000福利券赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000福利券赛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,50000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,500000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2500福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"25000福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"250000福利券",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_flq4",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1500</t>
+      <t>100</t>
     </r>
     <r>
       <rPr>
@@ -523,43 +531,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>50,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>1000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>700,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12500,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7500,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500,</t>
+    <t>500,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -567,104 +563,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>15000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10000,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>7000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,5000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,20000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,50000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,100000,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"obj_3d_50flq","prop_3d_50flq","jing_bi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"obj_3d_200flq","prop_3d_200flq","jing_bi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"obj_3d_500flq","prop_3d_500flq","jing_bi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"obj_3d_1000flq","prop_3d_1000flq","jing_bi",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ph_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ph_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ph_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>100000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1111,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1158,13 +1070,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1178,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1198,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1215,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1258,13 +1170,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1278,13 +1190,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1295,16 +1207,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1318,13 +1230,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1338,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1358,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1375,16 +1287,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1398,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1418,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1438,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1455,17 +1367,20 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1479,7 +1394,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1488,7 +1403,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.625" customWidth="1"/>
@@ -1588,25 +1503,25 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="L2" s="5">
         <v>1000</v>
@@ -1621,10 +1536,10 @@
         <v>10</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -1656,25 +1571,25 @@
         <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="8">
         <v>2</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>92</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L3" s="5">
         <v>10000</v>
@@ -1689,10 +1604,10 @@
         <v>10</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1724,25 +1639,25 @@
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8">
         <v>3</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="L4" s="10">
         <v>100000</v>
@@ -1757,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1792,25 +1707,25 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>94</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="L5" s="10">
         <v>1000000</v>
@@ -1825,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -1856,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,31 +1789,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1909,25 +1824,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="12">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="G2" s="12">
         <v>-1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1938,25 +1853,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="12">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G3" s="12">
-        <v>1499</v>
+        <v>1749</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1967,25 +1882,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="12">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="G4" s="12">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1996,25 +1911,25 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="12">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="G5" s="12">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2025,25 +1940,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="12">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G6" s="12">
-        <v>1499</v>
+        <v>1749</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2054,25 +1969,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="12">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="G7" s="12">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -2083,25 +1998,25 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="12">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="G8" s="12">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2112,25 +2027,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="12">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="12">
-        <v>1499</v>
+        <v>1749</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2141,25 +2056,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="G10" s="12">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -2170,25 +2085,25 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="G11" s="12">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2199,25 +2114,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="12">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="12">
-        <v>1499</v>
+        <v>1749</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2228,25 +2143,25 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="G13" s="12">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">

--- a/config_Release/sysbypms_rank_config.xlsx
+++ b/config_Release/sysbypms_rank_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|每日奖励" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -745,6 +742,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1025,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,82 +1066,82 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1152,7 +1158,7 @@
       <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1172,7 +1178,7 @@
       <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1192,7 +1198,7 @@
       <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1212,7 +1218,7 @@
       <c r="D9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1220,82 +1226,82 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>3</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1303,7 +1309,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1312,7 +1318,7 @@
       <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1332,7 +1338,7 @@
       <c r="D15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1352,7 +1358,7 @@
       <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1372,7 +1378,7 @@
       <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>110</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1393,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,11 +1529,11 @@
       <c r="K2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2000000</v>
+      <c r="L2" s="19">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1000000</v>
       </c>
       <c r="N2" s="6">
         <v>1000</v>
@@ -1591,11 +1597,11 @@
       <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="5">
-        <v>10000</v>
-      </c>
-      <c r="M3" s="5">
-        <v>20000000</v>
+      <c r="L3" s="19">
+        <v>100000</v>
+      </c>
+      <c r="M3" s="19">
+        <v>200000000</v>
       </c>
       <c r="N3" s="6">
         <v>1000</v>
@@ -1659,11 +1665,11 @@
       <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="10">
-        <v>100000</v>
-      </c>
-      <c r="M4" s="6">
-        <v>99999999999</v>
+      <c r="L4" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="M4" s="19">
+        <v>800000000</v>
       </c>
       <c r="N4" s="6">
         <v>1000</v>
@@ -1727,10 +1733,10 @@
       <c r="K5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="L5" s="20">
+        <v>10000000</v>
+      </c>
+      <c r="M5" s="21">
         <v>99999999999</v>
       </c>
       <c r="N5" s="6">
@@ -1764,6 +1770,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1826,16 +1833,16 @@
       <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>1750</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>-1</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -1855,16 +1862,16 @@
       <c r="C3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>1400</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>1749</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1884,16 +1891,16 @@
       <c r="C4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>1050</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>1399</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1907,22 +1914,22 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>1750</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>-1</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -1936,22 +1943,22 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1400</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1749</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1965,22 +1972,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1050</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1399</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2000,16 +2007,16 @@
       <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>1750</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2029,16 +2036,16 @@
       <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1400</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>1749</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -2058,16 +2065,16 @@
       <c r="C10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1050</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>1399</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -2087,16 +2094,16 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1750</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>-1</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -2116,16 +2123,16 @@
       <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>1400</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1749</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -2145,16 +2152,16 @@
       <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>1050</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>1399</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -2167,18 +2174,18 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
@@ -2186,7 +2193,7 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.15">
       <c r="H18" s="6"/>
@@ -2195,15 +2202,15 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
